--- a/clips.xlsx
+++ b/clips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paperspace\Documents\Coding Projects\Stock-Prediction-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zdhoffman/Documents/Coding Projects/Stock Market Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD2792-6DFC-492B-A4B9-66EE37D7BCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C42A968-3BD8-B74D-B7AE-2773BE920CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F816442-A6FA-4D51-B13D-48635F2D95C0}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="32720" windowHeight="18220" xr2:uid="{9F816442-A6FA-4D51-B13D-48635F2D95C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>pct_chg_forward_weekly</t>
-  </si>
-  <si>
-    <t>pct_chg_forward_monthly</t>
-  </si>
-  <si>
-    <t>pct_chg_forward_quarterly</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>lower</t>
   </si>
@@ -54,13 +45,496 @@
   </si>
   <si>
     <t>variable</t>
+  </si>
+  <si>
+    <t>adp_construction_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_construction_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_construction_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_ ed_health_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_ ed_health_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_financial_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_financial_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_financial_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_hospitality_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_hospitality_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_hospitality_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_information_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_information_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_information_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_largebiz_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_largebiz_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_largebiz_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_manufacturing_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_manufacturing_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_manufacturing_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_medlargebiz_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_medlargebiz_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_medlargebiz_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_mining_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_mining_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_mining_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_otherservices_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_otherservices_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_otherservices_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_private_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_private_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_private_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_profservices_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_profservices_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_profservices_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_smallbiz_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_smallbiz_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_smallbiz_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>adp_trade_transport_payrolls_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>adp_trade_transport_payrolls_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>adp_trade_transport_payrolls_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>Assets_by_Debt</t>
+  </si>
+  <si>
+    <t>Assets_by_Price</t>
+  </si>
+  <si>
+    <t>Assets_PS</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>business_loan_delinquency_diff_quarterly</t>
+  </si>
+  <si>
+    <t>business_loan_delinquency_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>business_loan_delinquency</t>
+  </si>
+  <si>
+    <t>car_inventories_by_sales_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>car_inventories_by_sales_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>CFO_by_Price</t>
+  </si>
+  <si>
+    <t>CFO_MAR_diff</t>
+  </si>
+  <si>
+    <t>CFO_MAR</t>
+  </si>
+  <si>
+    <t>consumer_loan_delinquency_diff_quarterly</t>
+  </si>
+  <si>
+    <t>consumer_loan_delinquency_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>cpi_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>cpi_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>credit_card_delinquency_diff_quarterly</t>
+  </si>
+  <si>
+    <t>credit_card_interest_rate_diff_monthly</t>
+  </si>
+  <si>
+    <t>credit_card_interest_rate_diff_quarterly</t>
+  </si>
+  <si>
+    <t>credit_card_interest_rate_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>credit_card_interest_rate_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>dividend_yield</t>
+  </si>
+  <si>
+    <t>dividend</t>
+  </si>
+  <si>
+    <t>EBIT_by_Debt</t>
+  </si>
+  <si>
+    <t>EBIT_by_EV</t>
+  </si>
+  <si>
+    <t>EBIT_by_Price</t>
+  </si>
+  <si>
+    <t>EBIT_MAR_diff</t>
+  </si>
+  <si>
+    <t>EBIT_MAR</t>
+  </si>
+  <si>
+    <t>EBITDA_by_Debt</t>
+  </si>
+  <si>
+    <t>EBITDA_by_EV</t>
+  </si>
+  <si>
+    <t>EBITDA_by_Price</t>
+  </si>
+  <si>
+    <t>EBITDA_MAR</t>
+  </si>
+  <si>
+    <t>EBITDA_PS</t>
+  </si>
+  <si>
+    <t>EPS.png</t>
+  </si>
+  <si>
+    <t>fed_funds_rate_diff_daily</t>
+  </si>
+  <si>
+    <t>fed_funds_rate_diff_monthly</t>
+  </si>
+  <si>
+    <t>fed_funds_rate_diff_quarterly</t>
+  </si>
+  <si>
+    <t>fed_funds_rate</t>
+  </si>
+  <si>
+    <t>heavy_weight_truck_sales_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>ig_bond_oas_spread_diff_daily</t>
+  </si>
+  <si>
+    <t>ig_bond_oas_spread_diff_monthly</t>
+  </si>
+  <si>
+    <t>ig_bond_oas_spread_diff_quarterly</t>
+  </si>
+  <si>
+    <t>ig_bond_oas_spread_pctdiff_daily</t>
+  </si>
+  <si>
+    <t>ig_bond_oas_spread_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>ig_bond_oas_spread</t>
+  </si>
+  <si>
+    <t>ig_bond_yield_diff_daily</t>
+  </si>
+  <si>
+    <t>ig_bond_yield_diff_monthly</t>
+  </si>
+  <si>
+    <t>ig_bond_yield_diff_quarterly</t>
+  </si>
+  <si>
+    <t>ig_bond_yield_pctdiff_daily</t>
+  </si>
+  <si>
+    <t>ig_bond_yield_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>ind_rev_growth_qoq</t>
+  </si>
+  <si>
+    <t>ind_rev_growth_yoy</t>
+  </si>
+  <si>
+    <t>industry_employment_growth_qoq</t>
+  </si>
+  <si>
+    <t>industry_employment_growth_yoy</t>
+  </si>
+  <si>
+    <t>industry_employment_growth</t>
+  </si>
+  <si>
+    <t>junk_bond_credit_spread</t>
+  </si>
+  <si>
+    <t>junk_bond_oas_spread_diff_daily</t>
+  </si>
+  <si>
+    <t>junk_bond_oas_spread_diff_monthly</t>
+  </si>
+  <si>
+    <t>junk_bond_oas_spread_diff_quarterly</t>
+  </si>
+  <si>
+    <t>junk_bond_oas_spread_pctdiff_daily</t>
+  </si>
+  <si>
+    <t>junk_bond_oas_spread_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>junk_bond_oas_spread_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>junk_bond_oas_spread</t>
+  </si>
+  <si>
+    <t>junk_bond_yield_diff_daily</t>
+  </si>
+  <si>
+    <t>junk_bond_yield_diff_monthly</t>
+  </si>
+  <si>
+    <t>junk_bond_yield_diff_quarterly</t>
+  </si>
+  <si>
+    <t>junk_bond_yield_pctdiff_daily</t>
+  </si>
+  <si>
+    <t>junk_bond_yield_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>junk_bond_yield_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>junk_bond_yield</t>
+  </si>
+  <si>
+    <t>light_vehicle_sales_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>light_vehicle_sales_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>light_vehicle_sales</t>
+  </si>
+  <si>
+    <t>m2_money_supply_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>m2_money_supply_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>m2_money_supply_pctdiff_weekly</t>
+  </si>
+  <si>
+    <t>MA_5_by_50</t>
+  </si>
+  <si>
+    <t>MA_5</t>
+  </si>
+  <si>
+    <t>MA_50_by_200</t>
+  </si>
+  <si>
+    <t>MA_50</t>
+  </si>
+  <si>
+    <t>MA_100</t>
+  </si>
+  <si>
+    <t>MA_200</t>
+  </si>
+  <si>
+    <t>NI_by_Debt</t>
+  </si>
+  <si>
+    <t>NI_by_EV</t>
+  </si>
+  <si>
+    <t>NI_by_Price</t>
+  </si>
+  <si>
+    <t>NI_MAR_diff</t>
+  </si>
+  <si>
+    <t>NI_MAR</t>
+  </si>
+  <si>
+    <t>nonfarm_payroll_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>nonfarm_payroll_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>pce_durablegoods_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>pce_durablegoods_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>pce_goods_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>pce_goods_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>pce_nondurablegoods_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>pce_nondurablegoods_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>pce_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>pce_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>pce_services_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>pce_services_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>pct_change_lastweek</t>
+  </si>
+  <si>
+    <t>pct_of_50</t>
+  </si>
+  <si>
+    <t>pct_of_100</t>
+  </si>
+  <si>
+    <t>pct_of_200</t>
+  </si>
+  <si>
+    <t>ppi_total_pctdiff_monthly</t>
+  </si>
+  <si>
+    <t>retail_sales_pctdiff_quarterly</t>
+  </si>
+  <si>
+    <t>retailer_inventories_by_sales_pctdiff_monthly.png</t>
+  </si>
+  <si>
+    <t>Rev_by_Debt</t>
+  </si>
+  <si>
+    <t>Rev_by_Price</t>
+  </si>
+  <si>
+    <t>Rev_growth_backward</t>
+  </si>
+  <si>
+    <t>sector_growth_qoq</t>
+  </si>
+  <si>
+    <t>sector_growth_yoy</t>
+  </si>
+  <si>
+    <t>sector_rev_growth_qoq</t>
+  </si>
+  <si>
+    <t>sector_rev_growth_yoy</t>
+  </si>
+  <si>
+    <t>treasury_yield_1mo_diff_daily</t>
+  </si>
+  <si>
+    <t>treasury_yield_1mo_diff_monthly</t>
+  </si>
+  <si>
+    <t>treasury_yield_3mo_diff_daily</t>
+  </si>
+  <si>
+    <t>treasury_yield_3mo_diff_monthly</t>
+  </si>
+  <si>
+    <t>treasury_yield_10yr_diff_daily</t>
+  </si>
+  <si>
+    <t>unemployment_diff_monthly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +548,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,9 +578,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,59 +916,1648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707F8947-7139-4C81-A541-58AC5BFE1F25}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="FC2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="FD26" sqref="FD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:177" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:177" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.01</v>
+      </c>
+      <c r="C2">
+        <v>-0.03</v>
+      </c>
+      <c r="D2">
+        <v>-2E-3</v>
+      </c>
+      <c r="E2">
+        <v>-0.02</v>
+      </c>
+      <c r="F2">
+        <v>-0.01</v>
+      </c>
+      <c r="G2">
+        <v>-0.01</v>
+      </c>
+      <c r="H2">
+        <v>-0.02</v>
+      </c>
+      <c r="I2">
+        <v>-0.04</v>
+      </c>
+      <c r="J2">
+        <v>-0.03</v>
+      </c>
+      <c r="K2">
+        <v>-0.06</v>
+      </c>
+      <c r="L2">
+        <v>-0.01</v>
+      </c>
+      <c r="M2">
+        <v>-0.02</v>
+      </c>
+      <c r="N2">
+        <v>-0.04</v>
+      </c>
+      <c r="O2">
+        <v>-0.06</v>
+      </c>
+      <c r="P2">
+        <v>-0.01</v>
+      </c>
+      <c r="Q2">
+        <v>-0.01</v>
+      </c>
+      <c r="R2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="S2">
+        <v>-0.01</v>
+      </c>
+      <c r="T2">
+        <v>-0.01</v>
+      </c>
+      <c r="U2">
+        <v>-2E-3</v>
+      </c>
+      <c r="V2">
+        <v>-0.01</v>
+      </c>
+      <c r="W2">
+        <v>-0.02</v>
+      </c>
+      <c r="X2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="Y2">
+        <v>-0.02</v>
+      </c>
+      <c r="Z2">
+        <v>-0.06</v>
+      </c>
+      <c r="AA2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AB2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="AC2">
+        <v>-0.04</v>
+      </c>
+      <c r="AD2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AE2">
+        <v>-0.01</v>
+      </c>
+      <c r="AF2">
+        <v>-0.02</v>
+      </c>
+      <c r="AG2">
+        <v>-2E-3</v>
+      </c>
+      <c r="AH2">
+        <v>-0.01</v>
+      </c>
+      <c r="AI2">
+        <v>-0.02</v>
+      </c>
+      <c r="AJ2">
+        <v>-2E-3</v>
+      </c>
+      <c r="AK2">
+        <v>-0.01</v>
+      </c>
+      <c r="AL2">
+        <v>-0.03</v>
+      </c>
+      <c r="AM2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AN2">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="AO2">
+        <v>-0.04</v>
+      </c>
+      <c r="AP2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>-0.4</v>
+      </c>
+      <c r="AV2">
+        <v>-0.03</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>-0.4</v>
+      </c>
+      <c r="AY2">
+        <v>-0.6</v>
+      </c>
+      <c r="AZ2">
+        <v>-1000000000</v>
+      </c>
+      <c r="BA2">
+        <v>-1</v>
+      </c>
+      <c r="BB2">
+        <v>-1</v>
+      </c>
+      <c r="BC2">
+        <v>-0.3</v>
+      </c>
+      <c r="BD2">
+        <v>-0.15</v>
+      </c>
+      <c r="BE2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="BF2">
+        <v>-0.03</v>
+      </c>
+      <c r="BG2">
+        <v>200</v>
+      </c>
+      <c r="BH2">
+        <v>-1000</v>
+      </c>
+      <c r="BI2">
+        <v>-1.5</v>
+      </c>
+      <c r="BJ2">
+        <v>-3</v>
+      </c>
+      <c r="BK2">
+        <v>-0.1</v>
+      </c>
+      <c r="BL2">
+        <v>-0.2</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>-5</v>
+      </c>
+      <c r="BP2">
+        <v>-5</v>
+      </c>
+      <c r="BQ2">
+        <v>-1</v>
+      </c>
+      <c r="BR2">
+        <v>-1</v>
+      </c>
+      <c r="BS2">
+        <v>-1</v>
+      </c>
+      <c r="BT2">
+        <v>-5</v>
+      </c>
+      <c r="BU2">
+        <v>-5</v>
+      </c>
+      <c r="BV2">
+        <v>-5</v>
+      </c>
+      <c r="BW2">
+        <v>-5</v>
+      </c>
+      <c r="BX2">
+        <v>-5</v>
+      </c>
+      <c r="BY2">
+        <v>-1</v>
+      </c>
+      <c r="BZ2">
+        <v>-0.5</v>
+      </c>
+      <c r="CA2">
+        <v>-0.5</v>
+      </c>
+      <c r="CB2">
+        <v>-1</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>-10</v>
+      </c>
+      <c r="CE2">
+        <v>-0.5</v>
+      </c>
+      <c r="CF2">
+        <v>-1</v>
+      </c>
+      <c r="CG2">
+        <v>-1</v>
+      </c>
+      <c r="CH2">
+        <v>-0.2</v>
+      </c>
+      <c r="CI2">
+        <v>-0.5</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>-0.5</v>
+      </c>
+      <c r="CL2">
+        <v>-1</v>
+      </c>
+      <c r="CM2">
+        <v>-2</v>
+      </c>
+      <c r="CN2">
+        <v>-0.1</v>
+      </c>
+      <c r="CO2">
+        <v>-0.3</v>
+      </c>
+      <c r="CP2">
+        <v>-1</v>
+      </c>
+      <c r="CQ2">
+        <v>-1</v>
+      </c>
+      <c r="CR2">
+        <v>-1</v>
+      </c>
+      <c r="CS2">
+        <v>-1</v>
+      </c>
+      <c r="CT2">
+        <v>-1</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>-0.5</v>
+      </c>
+      <c r="CW2">
+        <v>-3</v>
+      </c>
+      <c r="CX2">
+        <v>-5</v>
+      </c>
+      <c r="CY2">
+        <v>-0.1</v>
+      </c>
+      <c r="CZ2">
+        <v>-1</v>
+      </c>
+      <c r="DA2">
+        <v>-1</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>-0.5</v>
+      </c>
+      <c r="DD2">
+        <v>-3</v>
+      </c>
+      <c r="DE2">
+        <v>-6</v>
+      </c>
+      <c r="DF2">
+        <v>-0.05</v>
+      </c>
+      <c r="DG2">
+        <v>-0.04</v>
+      </c>
+      <c r="DH2">
+        <v>-0.08</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>-0.2</v>
+      </c>
+      <c r="DK2">
+        <v>-0.4</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>-0.04</v>
+      </c>
+      <c r="DN2">
+        <v>-0.05</v>
+      </c>
+      <c r="DO2">
+        <v>-0.02</v>
+      </c>
+      <c r="DP2">
+        <v>-1</v>
+      </c>
+      <c r="DQ2">
+        <v>-1</v>
+      </c>
+      <c r="DR2">
+        <v>-1</v>
+      </c>
+      <c r="DS2">
+        <v>-1</v>
+      </c>
+      <c r="DT2">
+        <v>-1</v>
+      </c>
+      <c r="DU2">
+        <v>-1</v>
+      </c>
+      <c r="DV2">
+        <v>-5</v>
+      </c>
+      <c r="DW2">
+        <v>-1</v>
+      </c>
+      <c r="DX2">
+        <v>-1</v>
+      </c>
+      <c r="DY2">
+        <v>-1</v>
+      </c>
+      <c r="DZ2">
+        <v>-1</v>
+      </c>
+      <c r="EA2">
+        <v>-0.03</v>
+      </c>
+      <c r="EB2">
+        <v>-0.05</v>
+      </c>
+      <c r="EC2">
+        <v>-0.1</v>
+      </c>
+      <c r="ED2">
+        <v>-0.1</v>
+      </c>
+      <c r="EE2">
+        <v>-0.04</v>
+      </c>
+      <c r="EF2">
+        <v>-0.05</v>
+      </c>
+      <c r="EG2">
+        <v>-0.03</v>
+      </c>
+      <c r="EH2">
+        <v>-0.03</v>
+      </c>
+      <c r="EI2">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="EJ2">
+        <v>-0.04</v>
+      </c>
+      <c r="EK2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="EL2">
+        <v>-0.02</v>
+      </c>
+      <c r="EM2">
+        <v>-1</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2">
+        <v>-0.01</v>
+      </c>
+      <c r="ER2">
+        <v>-0.2</v>
+      </c>
+      <c r="ES2">
+        <v>-0.05</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>-1</v>
+      </c>
+      <c r="EW2">
+        <v>-1</v>
+      </c>
+      <c r="EX2">
+        <v>-1</v>
+      </c>
+      <c r="EY2">
+        <v>-1</v>
+      </c>
+      <c r="EZ2">
+        <v>-1</v>
+      </c>
+      <c r="FA2">
+        <v>-0.25</v>
+      </c>
+      <c r="FB2">
+        <f>--1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="FC2">
+        <v>-0.35</v>
+      </c>
+      <c r="FD2">
+        <v>-1.5</v>
+      </c>
+      <c r="FE2">
+        <v>-0.35</v>
+      </c>
+      <c r="FF2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>2E-3</v>
+      </c>
+      <c r="E3">
+        <f>-E2</f>
+        <v>0.02</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:P3" si="0">-F2</f>
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="H3">
+        <v>0.03</v>
+      </c>
+      <c r="I3">
+        <v>-0.04</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="N3">
+        <v>0.05</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q3">
+        <v>0.03</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3" si="1">-R2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3" si="2">-S2</f>
+        <v>0.01</v>
+      </c>
+      <c r="T3">
+        <v>0.02</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3" si="3">-U2</f>
+        <v>2E-3</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3" si="4">-V2</f>
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3" si="5">-X2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3" si="6">-Y2</f>
+        <v>0.02</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3" si="7">-Z2</f>
+        <v>0.06</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3" si="8">-AA2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3" si="9">-AB2</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3" si="10">-AC2</f>
+        <v>0.04</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3" si="11">-AD2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3" si="12">-AE2</f>
+        <v>0.01</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3" si="13">-AF2</f>
+        <v>0.02</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3" si="14">-AG2</f>
+        <v>2E-3</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3" si="15">-AH2</f>
+        <v>0.01</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3" si="16">-AI2</f>
+        <v>0.02</v>
+      </c>
+      <c r="AJ3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3" si="17">-AK2</f>
+        <v>0.01</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3" si="18">-AL2</f>
+        <v>0.03</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3" si="19">-AM2</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3" si="20">-AN2</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3" si="21">-AO2</f>
+        <v>0.04</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ref="AP3" si="22">-AP2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <v>5000000000</v>
+      </c>
+      <c r="AS3">
+        <v>100000</v>
+      </c>
+      <c r="AT3">
+        <v>1000000000</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" ref="AU3" si="23">-AU2</f>
+        <v>0.4</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ref="AV3" si="24">-AV2</f>
+        <v>0.03</v>
+      </c>
+      <c r="AW3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="1" t="s">
+      <c r="AX3">
+        <v>0.3</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3" si="25">-AY2</f>
+        <v>0.6</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" ref="AZ3" si="26">-AZ2</f>
+        <v>1000000000</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" ref="BA3" si="27">-BA2</f>
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" ref="BB3" si="28">-BB2</f>
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" ref="BC3" si="29">-BC2</f>
+        <v>0.3</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ref="BD3" si="30">-BD2</f>
+        <v>0.15</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" ref="BE3" si="31">-BE2</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BF3">
+        <v>0.04</v>
+      </c>
+      <c r="BG3">
+        <v>2000</v>
+      </c>
+      <c r="BH3">
+        <v>0.4</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" ref="BI3" si="32">-BI2</f>
+        <v>1.5</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" ref="BJ3" si="33">-BJ2</f>
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>-0.25</v>
-      </c>
-      <c r="C2">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="D2">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="BK3">
+        <f t="shared" ref="BK3" si="34">-BK2</f>
+        <v>0.1</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" ref="BL3" si="35">-BL2</f>
+        <v>0.2</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>50</v>
+      </c>
+      <c r="BO3">
+        <f t="shared" ref="BO3" si="36">-BO2</f>
+        <v>5</v>
+      </c>
+      <c r="BP3">
+        <f t="shared" ref="BP3" si="37">-BP2</f>
+        <v>5</v>
+      </c>
+      <c r="BQ3">
+        <v>10</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" ref="BR3:EC3" si="38">-BR2</f>
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="BU3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="BW3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="BX3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="BY3">
+        <v>10</v>
+      </c>
+      <c r="BZ3">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="CA3">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="CB3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>6</v>
+      </c>
+      <c r="CD3">
+        <v>0.35</v>
+      </c>
+      <c r="CE3">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="CF3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <f t="shared" si="38"/>
+        <v>0.2</v>
+      </c>
+      <c r="CI3">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="CJ3">
+        <v>2.5</v>
+      </c>
+      <c r="CK3">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="CL3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="CN3">
+        <f t="shared" si="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="CO3">
+        <v>0.4</v>
+      </c>
+      <c r="CP3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CR3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CS3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CT3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>11</v>
+      </c>
+      <c r="CV3">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="CW3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="CX3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="CY3">
+        <f t="shared" si="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="CZ3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>10</v>
+      </c>
+      <c r="DC3">
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="DD3">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="DE3">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="DF3">
+        <f t="shared" si="38"/>
+        <v>0.05</v>
+      </c>
+      <c r="DG3">
+        <f t="shared" si="38"/>
+        <v>0.04</v>
+      </c>
+      <c r="DH3">
+        <f t="shared" si="38"/>
+        <v>0.08</v>
+      </c>
+      <c r="DI3">
+        <v>12</v>
+      </c>
+      <c r="DJ3">
+        <f t="shared" si="38"/>
+        <v>0.2</v>
+      </c>
+      <c r="DK3">
+        <f t="shared" si="38"/>
+        <v>0.4</v>
+      </c>
+      <c r="DL3">
+        <v>19</v>
+      </c>
+      <c r="DM3">
+        <f t="shared" si="38"/>
+        <v>0.04</v>
+      </c>
+      <c r="DN3">
+        <f t="shared" si="38"/>
+        <v>0.05</v>
+      </c>
+      <c r="DO3">
+        <v>0.01</v>
+      </c>
+      <c r="DP3">
+        <v>2</v>
+      </c>
+      <c r="DQ3">
+        <v>100</v>
+      </c>
+      <c r="DR3">
+        <v>2</v>
+      </c>
+      <c r="DS3">
+        <v>100</v>
+      </c>
+      <c r="DT3">
+        <v>100</v>
+      </c>
+      <c r="DU3">
+        <v>100</v>
+      </c>
+      <c r="DV3">
+        <v>5</v>
+      </c>
+      <c r="DW3">
+        <v>1</v>
+      </c>
+      <c r="DX3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DY3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DZ3">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="EA3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="EB3">
+        <v>0.05</v>
+      </c>
+      <c r="EC3">
+        <f t="shared" si="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="ED3">
+        <f t="shared" ref="ED3:FU3" si="39">-ED2</f>
+        <v>0.1</v>
+      </c>
+      <c r="EE3">
+        <f t="shared" si="39"/>
+        <v>0.04</v>
+      </c>
+      <c r="EF3">
+        <f t="shared" si="39"/>
+        <v>0.05</v>
+      </c>
+      <c r="EG3">
+        <f t="shared" si="39"/>
+        <v>0.03</v>
+      </c>
+      <c r="EH3">
+        <v>0.05</v>
+      </c>
+      <c r="EI3">
+        <f t="shared" si="39"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="EJ3">
+        <f t="shared" si="39"/>
+        <v>0.04</v>
+      </c>
+      <c r="EK3">
+        <v>0.02</v>
+      </c>
+      <c r="EL3">
+        <v>0.05</v>
+      </c>
+      <c r="EM3">
+        <v>1</v>
+      </c>
+      <c r="EN3">
+        <v>2</v>
+      </c>
+      <c r="EO3">
+        <v>2</v>
+      </c>
+      <c r="EP3">
+        <v>2</v>
+      </c>
+      <c r="EQ3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="ER3">
         <v>0.25</v>
       </c>
-      <c r="C3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D3">
-        <v>1.2</v>
+      <c r="ES3">
+        <f t="shared" si="39"/>
+        <v>0.05</v>
+      </c>
+      <c r="ET3">
+        <v>10</v>
+      </c>
+      <c r="EU3">
+        <v>10</v>
+      </c>
+      <c r="EV3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="EW3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="EX3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="EY3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="EZ3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="FA3">
+        <f t="shared" si="39"/>
+        <v>0.25</v>
+      </c>
+      <c r="FB3">
+        <f t="shared" si="39"/>
+        <v>-1.5</v>
+      </c>
+      <c r="FC3">
+        <f t="shared" si="39"/>
+        <v>0.35</v>
+      </c>
+      <c r="FD3">
+        <f t="shared" si="39"/>
+        <v>1.5</v>
+      </c>
+      <c r="FE3">
+        <f t="shared" si="39"/>
+        <v>0.35</v>
+      </c>
+      <c r="FF3">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="FG3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
